--- a/misc/171013.xlsx
+++ b/misc/171013.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>nbExecutor</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>time (sec)</t>
+  </si>
+  <si>
+    <t>nbSeq</t>
+  </si>
+  <si>
+    <t>nbSeq(x 10k)</t>
   </si>
 </sst>
 </file>
@@ -697,22 +703,22 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>105</c:v>
@@ -727,19 +733,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>99</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>102</c:v>
@@ -787,22 +793,22 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42</c:v>
@@ -817,19 +823,19 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>58</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>61</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>68</c:v>
@@ -895,22 +901,22 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>105</c:v>
@@ -925,19 +931,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>99</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>102</c:v>
@@ -985,22 +991,22 @@
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>113</c:v>
@@ -1015,19 +1021,19 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>148</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>159</c:v>
@@ -1040,15 +1046,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$59</c:f>
+              <c:f>Sheet1!$K$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>size (MB)</c:v>
+                  <c:v>time (sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1093,22 +1099,22 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>105</c:v>
@@ -1123,19 +1129,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>99</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>102</c:v>
@@ -1148,105 +1154,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$60:$J$86</c:f>
+              <c:f>Sheet1!$K$60:$K$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>86</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$59</c:f>
+              <c:f>Sheet1!$L$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time (sec)</c:v>
+                  <c:v>nbSeq(x 10k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1291,22 +1297,22 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>105</c:v>
@@ -1321,19 +1327,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>99</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>102</c:v>
@@ -1346,125 +1352,131 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$60:$K$86</c:f>
+              <c:f>Sheet1!$L$60:$L$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>19.671500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211</c:v>
+                  <c:v>28.811499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185</c:v>
+                  <c:v>31.149899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208</c:v>
+                  <c:v>32.746299999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313</c:v>
+                  <c:v>44.731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>50.280299999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>215</c:v>
+                  <c:v>51.424300000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>54.621600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>361</c:v>
+                  <c:v>55.961199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>408</c:v>
+                  <c:v>56.063299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>428</c:v>
+                  <c:v>72.438800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>489</c:v>
+                  <c:v>75.671300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>506</c:v>
+                  <c:v>76.459599999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>498</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>436</c:v>
+                  <c:v>81.4268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134</c:v>
+                  <c:v>83.251499999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113</c:v>
+                  <c:v>90.760999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>211</c:v>
+                  <c:v>106.7906</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68</c:v>
+                  <c:v>161.15639999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188</c:v>
+                  <c:v>183.8879</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>298</c:v>
+                  <c:v>202.16120000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>338</c:v>
+                  <c:v>234.96299999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95</c:v>
+                  <c:v>236.5686</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>187</c:v>
+                  <c:v>236.8349</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>268</c:v>
+                  <c:v>240.14109999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>626</c:v>
+                  <c:v>311.1943</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>654</c:v>
+                  <c:v>337.75970000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81027072"/>
-        <c:axId val="81047552"/>
+        <c:axId val="81176448"/>
+        <c:axId val="81177984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81027072"/>
+        <c:axId val="81176448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81047552"/>
+        <c:crossAx val="81177984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81047552"/>
+        <c:axId val="81177984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81027072"/>
+        <c:crossAx val="81176448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1574,20 +1586,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvPr id="9" name="Graphique 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1927,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60:K86"/>
+      <selection activeCell="F59" sqref="F59:L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2273,7 +2285,7 @@
         <v>13.057591623036648</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:12">
       <c r="B49">
         <v>32</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>15.685534591194969</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:12">
       <c r="B50">
         <v>40</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>17.942446043165468</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:12">
       <c r="B51">
         <v>80</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:12">
       <c r="B52">
         <v>160</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>37.787878787878789</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:12">
       <c r="B53">
         <v>320</v>
       </c>
@@ -2368,11 +2380,14 @@
         <v>40.225806451612904</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:12">
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:12">
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
@@ -2388,8 +2403,14 @@
       <c r="K59" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="2:11">
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="F60">
+        <v>196715</v>
+      </c>
       <c r="G60" s="1">
         <v>463</v>
       </c>
@@ -2405,8 +2426,15 @@
       <c r="K60" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="61" spans="2:11">
+      <c r="L60">
+        <f>F60/10000</f>
+        <v>19.671500000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="F61">
+        <v>288115</v>
+      </c>
       <c r="G61" s="1">
         <v>459</v>
       </c>
@@ -2422,8 +2450,15 @@
       <c r="K61" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="62" spans="2:11">
+      <c r="L61">
+        <f>F61/10000</f>
+        <v>28.811499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="F62">
+        <v>311499</v>
+      </c>
       <c r="G62" s="1">
         <v>468</v>
       </c>
@@ -2439,8 +2474,15 @@
       <c r="K62" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="2:11">
+      <c r="L62">
+        <f>F62/10000</f>
+        <v>31.149899999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="F63">
+        <v>327463</v>
+      </c>
       <c r="G63" s="1">
         <v>466</v>
       </c>
@@ -2456,8 +2498,15 @@
       <c r="K63" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="64" spans="2:11">
+      <c r="L63">
+        <f>F63/10000</f>
+        <v>32.746299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="F64">
+        <v>447310</v>
+      </c>
       <c r="G64" s="1">
         <v>461</v>
       </c>
@@ -2473,8 +2522,15 @@
       <c r="K64" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="65" spans="7:11">
+      <c r="L64">
+        <f>F64/10000</f>
+        <v>44.731000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12">
+      <c r="F65">
+        <v>502803</v>
+      </c>
       <c r="G65" s="1">
         <v>462</v>
       </c>
@@ -2490,8 +2546,15 @@
       <c r="K65" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="66" spans="7:11">
+      <c r="L65">
+        <f>F65/10000</f>
+        <v>50.280299999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12">
+      <c r="F66">
+        <v>514243</v>
+      </c>
       <c r="G66" s="1">
         <v>452</v>
       </c>
@@ -2507,8 +2570,15 @@
       <c r="K66" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="67" spans="7:11">
+      <c r="L66">
+        <f>F66/10000</f>
+        <v>51.424300000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12">
+      <c r="F67">
+        <v>546216</v>
+      </c>
       <c r="G67" s="1">
         <v>454</v>
       </c>
@@ -2524,8 +2594,15 @@
       <c r="K67" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="68" spans="7:11">
+      <c r="L67">
+        <f>F67/10000</f>
+        <v>54.621600000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12">
+      <c r="F68">
+        <v>559612</v>
+      </c>
       <c r="G68" s="1">
         <v>464</v>
       </c>
@@ -2541,8 +2618,15 @@
       <c r="K68" s="1">
         <v>361</v>
       </c>
-    </row>
-    <row r="69" spans="7:11">
+      <c r="L68">
+        <f>F68/10000</f>
+        <v>55.961199999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12">
+      <c r="F69">
+        <v>560633</v>
+      </c>
       <c r="G69" s="1">
         <v>455</v>
       </c>
@@ -2558,59 +2642,87 @@
       <c r="K69" s="1">
         <v>408</v>
       </c>
-    </row>
-    <row r="70" spans="7:11">
+      <c r="L69">
+        <f>F69/10000</f>
+        <v>56.063299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12">
+      <c r="F70">
+        <v>724388</v>
+      </c>
       <c r="G70" s="1">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H70" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I70" s="1">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="J70">
         <v>19</v>
       </c>
       <c r="K70" s="1">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="7:11">
+        <v>489</v>
+      </c>
+      <c r="L70">
+        <f>F70/10000</f>
+        <v>72.438800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12">
+      <c r="F71">
+        <v>756713</v>
+      </c>
       <c r="G71" s="1">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H71" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I71" s="1">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="J71">
         <v>19</v>
       </c>
       <c r="K71" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="72" spans="7:11">
+        <v>506</v>
+      </c>
+      <c r="L71">
+        <f>F71/10000</f>
+        <v>75.671300000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12">
+      <c r="F72">
+        <v>764596</v>
+      </c>
       <c r="G72" s="1">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H72" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I72" s="1">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J72">
         <v>19</v>
       </c>
       <c r="K72" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="7:11">
+        <v>428</v>
+      </c>
+      <c r="L72">
+        <f>F72/10000</f>
+        <v>76.459599999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12">
+      <c r="F73">
+        <v>814000</v>
+      </c>
       <c r="G73" s="1">
         <v>453</v>
       </c>
@@ -2626,42 +2738,63 @@
       <c r="K73" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="74" spans="7:11">
+      <c r="L73">
+        <f>F73/10000</f>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12">
+      <c r="F74">
+        <v>814268</v>
+      </c>
       <c r="G74" s="1">
+        <v>106</v>
+      </c>
+      <c r="H74" s="1">
+        <v>39</v>
+      </c>
+      <c r="I74" s="1">
+        <v>112</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+      <c r="K74" s="1">
+        <v>134</v>
+      </c>
+      <c r="L74">
+        <f>F74/10000</f>
+        <v>81.4268</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12">
+      <c r="F75">
+        <v>832515</v>
+      </c>
+      <c r="G75" s="1">
         <v>457</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H75" s="1">
         <v>91</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I75" s="1">
         <v>205</v>
       </c>
-      <c r="J74">
+      <c r="J75">
         <v>21</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K75" s="1">
         <v>436</v>
       </c>
-    </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="1">
-        <v>106</v>
-      </c>
-      <c r="H75" s="1">
-        <v>39</v>
-      </c>
-      <c r="I75" s="1">
-        <v>112</v>
-      </c>
-      <c r="J75">
-        <v>22</v>
-      </c>
-      <c r="K75" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="7:11">
+      <c r="L75">
+        <f>F75/10000</f>
+        <v>83.251499999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12">
+      <c r="F76">
+        <v>907610</v>
+      </c>
       <c r="G76" s="1">
         <v>105</v>
       </c>
@@ -2677,8 +2810,15 @@
       <c r="K76" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="7:11">
+      <c r="L76">
+        <f>F76/10000</f>
+        <v>90.760999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12">
+      <c r="F77">
+        <v>1067906</v>
+      </c>
       <c r="G77" s="1">
         <v>137</v>
       </c>
@@ -2694,8 +2834,15 @@
       <c r="K77" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="78" spans="7:11">
+      <c r="L77">
+        <f>F77/10000</f>
+        <v>106.7906</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12">
+      <c r="F78">
+        <v>1611564</v>
+      </c>
       <c r="G78" s="1">
         <v>460</v>
       </c>
@@ -2711,8 +2858,15 @@
       <c r="K78" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="7:11">
+      <c r="L78">
+        <f>F78/10000</f>
+        <v>161.15639999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12">
+      <c r="F79">
+        <v>1838879</v>
+      </c>
       <c r="G79" s="1">
         <v>100</v>
       </c>
@@ -2728,59 +2882,87 @@
       <c r="K79" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="80" spans="7:11">
+      <c r="L79">
+        <f>F79/10000</f>
+        <v>183.8879</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12">
+      <c r="F80">
+        <v>2021612</v>
+      </c>
       <c r="G80" s="1">
+        <v>467</v>
+      </c>
+      <c r="H80" s="1">
+        <v>61</v>
+      </c>
+      <c r="I80" s="1">
+        <v>148</v>
+      </c>
+      <c r="J80">
+        <v>62</v>
+      </c>
+      <c r="K80" s="1">
+        <v>95</v>
+      </c>
+      <c r="L80">
+        <f>F80/10000</f>
+        <v>202.16120000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12">
+      <c r="F81">
+        <v>2349630</v>
+      </c>
+      <c r="G81" s="1">
         <v>133</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H81" s="1">
         <v>46</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I81" s="1">
         <v>115</v>
       </c>
-      <c r="J80">
+      <c r="J81">
         <v>60</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K81" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="1">
-        <v>99</v>
-      </c>
-      <c r="H81" s="1">
-        <v>58</v>
-      </c>
-      <c r="I81" s="1">
-        <v>144</v>
-      </c>
-      <c r="J81">
-        <v>61</v>
-      </c>
-      <c r="K81" s="1">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82" spans="7:11">
+      <c r="L81">
+        <f>F81/10000</f>
+        <v>234.96299999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12">
+      <c r="F82">
+        <v>2365686</v>
+      </c>
       <c r="G82" s="1">
-        <v>467</v>
+        <v>134</v>
       </c>
       <c r="H82" s="1">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I82" s="1">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="J82">
         <v>62</v>
       </c>
       <c r="K82" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="7:11">
+        <v>268</v>
+      </c>
+      <c r="L82">
+        <f>F82/10000</f>
+        <v>236.5686</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12">
+      <c r="F83">
+        <v>2368349</v>
+      </c>
       <c r="G83" s="1">
         <v>138</v>
       </c>
@@ -2796,25 +2978,39 @@
       <c r="K83" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="84" spans="7:11">
+      <c r="L83">
+        <f>F83/10000</f>
+        <v>236.8349</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12">
+      <c r="F84">
+        <v>2401411</v>
+      </c>
       <c r="G84" s="1">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H84" s="1">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I84" s="1">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="J84">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K84" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="7:11">
+        <v>338</v>
+      </c>
+      <c r="L84">
+        <f>F84/10000</f>
+        <v>240.14109999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12">
+      <c r="F85">
+        <v>3111943</v>
+      </c>
       <c r="G85" s="1">
         <v>102</v>
       </c>
@@ -2830,8 +3026,15 @@
       <c r="K85" s="1">
         <v>626</v>
       </c>
-    </row>
-    <row r="86" spans="7:11">
+      <c r="L85">
+        <f>F85/10000</f>
+        <v>311.1943</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12">
+      <c r="F86">
+        <v>3377597</v>
+      </c>
       <c r="G86" s="1">
         <v>101</v>
       </c>
@@ -2847,10 +3050,14 @@
       <c r="K86" s="1">
         <v>654</v>
       </c>
+      <c r="L86">
+        <f>F86/10000</f>
+        <v>337.75970000000001</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G60:K86">
-    <sortCondition ref="J60:J86"/>
+  <sortState ref="F60:L86">
+    <sortCondition ref="L60:L86"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
